--- a/data/pca/factorExposure/factorExposure_2017-03-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01521201006050311</v>
+        <v>0.01016560455822299</v>
       </c>
       <c r="C2">
-        <v>0.01819313093365774</v>
+        <v>-0.0403002446812005</v>
       </c>
       <c r="D2">
-        <v>-0.02974983223620412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02981220643627803</v>
+      </c>
+      <c r="E2">
+        <v>0.03986607209834796</v>
+      </c>
+      <c r="F2">
+        <v>-0.003851975987882396</v>
+      </c>
+      <c r="G2">
+        <v>0.1037468652590759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01898687493891207</v>
+        <v>0.04025871782295742</v>
       </c>
       <c r="C3">
-        <v>-0.001507274036230042</v>
+        <v>-0.101001107786684</v>
       </c>
       <c r="D3">
-        <v>-0.09017698126075639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01817413256380715</v>
+      </c>
+      <c r="E3">
+        <v>0.1030789648227208</v>
+      </c>
+      <c r="F3">
+        <v>0.001739511258538417</v>
+      </c>
+      <c r="G3">
+        <v>0.1592775663170979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02863723005919103</v>
+        <v>0.05582883850619846</v>
       </c>
       <c r="C4">
-        <v>0.006789061611118336</v>
+        <v>-0.06864698849750149</v>
       </c>
       <c r="D4">
-        <v>-0.07890058581014017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02491402783502871</v>
+      </c>
+      <c r="E4">
+        <v>0.03567977303366651</v>
+      </c>
+      <c r="F4">
+        <v>-0.008185517984460978</v>
+      </c>
+      <c r="G4">
+        <v>0.1005576056625668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01361025142019847</v>
+        <v>0.03614571574138275</v>
       </c>
       <c r="C6">
-        <v>0.008607231860565541</v>
+        <v>-0.05069054197283781</v>
       </c>
       <c r="D6">
-        <v>-0.07515533330558222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01743717828447628</v>
+      </c>
+      <c r="E6">
+        <v>0.04063841854892634</v>
+      </c>
+      <c r="F6">
+        <v>-0.00357740440063793</v>
+      </c>
+      <c r="G6">
+        <v>0.08792368613302289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004602635101083086</v>
+        <v>0.02050160118835002</v>
       </c>
       <c r="C7">
-        <v>0.01044973496091058</v>
+        <v>-0.03941111809852797</v>
       </c>
       <c r="D7">
-        <v>-0.0365526009878572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01405011195531551</v>
+      </c>
+      <c r="E7">
+        <v>0.009007233593521721</v>
+      </c>
+      <c r="F7">
+        <v>0.004566019612713882</v>
+      </c>
+      <c r="G7">
+        <v>0.1229163460128969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003648395896764025</v>
+        <v>0.00243571166113642</v>
       </c>
       <c r="C8">
-        <v>0.003449324881545693</v>
+        <v>-0.02374789095957305</v>
       </c>
       <c r="D8">
-        <v>0.004398105673389041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003963393936600913</v>
+      </c>
+      <c r="E8">
+        <v>0.03177011922161289</v>
+      </c>
+      <c r="F8">
+        <v>-0.003731989635419386</v>
+      </c>
+      <c r="G8">
+        <v>0.07041190118492474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01439163610274742</v>
+        <v>0.03416858012375667</v>
       </c>
       <c r="C9">
-        <v>0.006865116360617653</v>
+        <v>-0.04981426897471787</v>
       </c>
       <c r="D9">
-        <v>-0.05747661825300837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01654306381153063</v>
+      </c>
+      <c r="E9">
+        <v>0.02465944713289132</v>
+      </c>
+      <c r="F9">
+        <v>-0.005874950732350173</v>
+      </c>
+      <c r="G9">
+        <v>0.100337972158225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1379677413497185</v>
+        <v>0.09827933360801175</v>
       </c>
       <c r="C10">
-        <v>-0.1071630417151157</v>
+        <v>0.1839888221437314</v>
       </c>
       <c r="D10">
-        <v>0.1103672519669993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01550308544138054</v>
+      </c>
+      <c r="E10">
+        <v>0.02099282222640631</v>
+      </c>
+      <c r="F10">
+        <v>0.02174944142570915</v>
+      </c>
+      <c r="G10">
+        <v>0.05745945876515324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.002407226318140817</v>
+        <v>0.03433101078093628</v>
       </c>
       <c r="C11">
-        <v>-0.0006357993773234889</v>
+        <v>-0.05308955059037811</v>
       </c>
       <c r="D11">
-        <v>-0.05183711609341235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002719670242830619</v>
+      </c>
+      <c r="E11">
+        <v>0.01987059423709594</v>
+      </c>
+      <c r="F11">
+        <v>-0.01808648405167466</v>
+      </c>
+      <c r="G11">
+        <v>0.09067739710357302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004780101618022079</v>
+        <v>0.03591868740580663</v>
       </c>
       <c r="C12">
-        <v>0.003615665340306524</v>
+        <v>-0.04780852257273902</v>
       </c>
       <c r="D12">
-        <v>-0.04470577950621143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006775200330821107</v>
+      </c>
+      <c r="E12">
+        <v>0.01069977545026301</v>
+      </c>
+      <c r="F12">
+        <v>-0.0008318998969443538</v>
+      </c>
+      <c r="G12">
+        <v>0.08229697195670069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01828489769693498</v>
+        <v>0.0152397480559998</v>
       </c>
       <c r="C13">
-        <v>0.01275937738562856</v>
+        <v>-0.04176317619840485</v>
       </c>
       <c r="D13">
-        <v>-0.03509010101931354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02677726714833068</v>
+      </c>
+      <c r="E13">
+        <v>0.03999149459418805</v>
+      </c>
+      <c r="F13">
+        <v>2.745802195109033e-05</v>
+      </c>
+      <c r="G13">
+        <v>0.141079430482506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003783720873582445</v>
+        <v>0.007871238142998341</v>
       </c>
       <c r="C14">
-        <v>0.005690354435692661</v>
+        <v>-0.02819172717379791</v>
       </c>
       <c r="D14">
-        <v>-0.01899557306185376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01034548609042211</v>
+      </c>
+      <c r="E14">
+        <v>0.009732776740384466</v>
+      </c>
+      <c r="F14">
+        <v>0.007752226454455808</v>
+      </c>
+      <c r="G14">
+        <v>0.1074829385396881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005769085994558804</v>
+        <v>0.03307695957792082</v>
       </c>
       <c r="C16">
-        <v>-0.003337752321858847</v>
+        <v>-0.04620297345336824</v>
       </c>
       <c r="D16">
-        <v>-0.04134676981064637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002129937121248143</v>
+      </c>
+      <c r="E16">
+        <v>0.01644307874859799</v>
+      </c>
+      <c r="F16">
+        <v>0.000568639975702848</v>
+      </c>
+      <c r="G16">
+        <v>0.09247726595836336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01101605839385003</v>
+        <v>0.0222063946182974</v>
       </c>
       <c r="C19">
-        <v>0.007906573144031584</v>
+        <v>-0.05121550087598559</v>
       </c>
       <c r="D19">
-        <v>-0.0386160506196157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01969975560404244</v>
+      </c>
+      <c r="E19">
+        <v>0.08388302798459016</v>
+      </c>
+      <c r="F19">
+        <v>-0.0140867550914242</v>
+      </c>
+      <c r="G19">
+        <v>0.1388920651330026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.005185212269725049</v>
+        <v>0.01544782260502032</v>
       </c>
       <c r="C20">
-        <v>0.009289619148919067</v>
+        <v>-0.04168303788685786</v>
       </c>
       <c r="D20">
-        <v>-0.03285139847119877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01449229113762378</v>
+      </c>
+      <c r="E20">
+        <v>0.03977158563193974</v>
+      </c>
+      <c r="F20">
+        <v>0.01570047626644975</v>
+      </c>
+      <c r="G20">
+        <v>0.1114727888524086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01280538075176782</v>
+        <v>0.01150007478560357</v>
       </c>
       <c r="C21">
-        <v>0.006486108997294049</v>
+        <v>-0.03848750334023023</v>
       </c>
       <c r="D21">
-        <v>-0.01971318760643374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01956552399880513</v>
+      </c>
+      <c r="E21">
+        <v>0.05302367168386563</v>
+      </c>
+      <c r="F21">
+        <v>0.004134549792331257</v>
+      </c>
+      <c r="G21">
+        <v>0.1388697625809788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001808452560747383</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0001118393136902489</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.000775435050490265</v>
+      </c>
+      <c r="E22">
+        <v>0.005653957220148082</v>
+      </c>
+      <c r="F22">
+        <v>-0.0021473208203613</v>
+      </c>
+      <c r="G22">
+        <v>0.007501366548646559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00181227674519179</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0001233087579658664</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0007730931477082694</v>
+      </c>
+      <c r="E23">
+        <v>0.005633238691139651</v>
+      </c>
+      <c r="F23">
+        <v>-0.002146788526962479</v>
+      </c>
+      <c r="G23">
+        <v>0.007391969562601975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0006285898488918215</v>
+        <v>0.02821659847399974</v>
       </c>
       <c r="C24">
-        <v>0.006886933802224966</v>
+        <v>-0.05078242738546616</v>
       </c>
       <c r="D24">
-        <v>-0.04473409191366121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007450260287209096</v>
+      </c>
+      <c r="E24">
+        <v>0.01432755950113907</v>
+      </c>
+      <c r="F24">
+        <v>-0.01025476133896859</v>
+      </c>
+      <c r="G24">
+        <v>0.09131672431891243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01613113519903805</v>
+        <v>0.042239413088917</v>
       </c>
       <c r="C25">
-        <v>0.001167250035319419</v>
+        <v>-0.05791086823282254</v>
       </c>
       <c r="D25">
-        <v>-0.0588409964620952</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01142846267139975</v>
+      </c>
+      <c r="E25">
+        <v>0.005893832585042272</v>
+      </c>
+      <c r="F25">
+        <v>-0.003697118607423578</v>
+      </c>
+      <c r="G25">
+        <v>0.09918330046204003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01229582155844629</v>
+        <v>0.0133794240162699</v>
       </c>
       <c r="C26">
-        <v>0.01792179756372227</v>
+        <v>-0.01276922323523226</v>
       </c>
       <c r="D26">
-        <v>-0.0004801118409163205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02428762773580289</v>
+      </c>
+      <c r="E26">
+        <v>0.01042942052532538</v>
+      </c>
+      <c r="F26">
+        <v>0.007647696193626312</v>
+      </c>
+      <c r="G26">
+        <v>0.08351073693580847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1896527386979914</v>
+        <v>0.1260726379185383</v>
       </c>
       <c r="C28">
-        <v>-0.1290543290489749</v>
+        <v>0.2409234385037952</v>
       </c>
       <c r="D28">
-        <v>0.1426576785125756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006594326811511827</v>
+      </c>
+      <c r="E28">
+        <v>0.009448575420514579</v>
+      </c>
+      <c r="F28">
+        <v>0.01695930946562039</v>
+      </c>
+      <c r="G28">
+        <v>0.04852431738601348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008927768207287136</v>
+        <v>0.008491948531633441</v>
       </c>
       <c r="C29">
-        <v>0.001569003160753009</v>
+        <v>-0.02261352237156738</v>
       </c>
       <c r="D29">
-        <v>-0.01693769175810687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009405760885790003</v>
+      </c>
+      <c r="E29">
+        <v>0.006274931367056483</v>
+      </c>
+      <c r="F29">
+        <v>0.01410899064818031</v>
+      </c>
+      <c r="G29">
+        <v>0.09909450720961954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01261956786369744</v>
+        <v>0.04126583901712112</v>
       </c>
       <c r="C30">
-        <v>0.0204996651490191</v>
+        <v>-0.06854206123474163</v>
       </c>
       <c r="D30">
-        <v>-0.09950192949920363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02933534114276925</v>
+      </c>
+      <c r="E30">
+        <v>0.0642217802212143</v>
+      </c>
+      <c r="F30">
+        <v>-0.04048847654185229</v>
+      </c>
+      <c r="G30">
+        <v>0.1348815113446153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02561848795209259</v>
+        <v>0.05320157706872426</v>
       </c>
       <c r="C31">
-        <v>-0.01279953721460905</v>
+        <v>-0.03821890506869965</v>
       </c>
       <c r="D31">
-        <v>-0.03032557612096625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003808208135870409</v>
+      </c>
+      <c r="E31">
+        <v>-0.0009523382158390069</v>
+      </c>
+      <c r="F31">
+        <v>0.04027198300084607</v>
+      </c>
+      <c r="G31">
+        <v>0.09855805740283145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.000531059551762799</v>
+        <v>0.001977803980840132</v>
       </c>
       <c r="C32">
-        <v>-0.009902149054549829</v>
+        <v>-0.02277581436312127</v>
       </c>
       <c r="D32">
-        <v>0.0008346660278910549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002616699035711785</v>
+      </c>
+      <c r="E32">
+        <v>0.03912120376440104</v>
+      </c>
+      <c r="F32">
+        <v>-0.03984387793523509</v>
+      </c>
+      <c r="G32">
+        <v>0.08690551741984311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009775509270210272</v>
+        <v>0.0277560673556472</v>
       </c>
       <c r="C33">
-        <v>0.006452119830864957</v>
+        <v>-0.0503213357933336</v>
       </c>
       <c r="D33">
-        <v>-0.04167458910181421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0162361039879116</v>
+      </c>
+      <c r="E33">
+        <v>0.04767558508624222</v>
+      </c>
+      <c r="F33">
+        <v>-0.01328703187534124</v>
+      </c>
+      <c r="G33">
+        <v>0.1624947356319203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00922422519560618</v>
+        <v>0.03951588836664368</v>
       </c>
       <c r="C34">
-        <v>-0.01365000112844173</v>
+        <v>-0.05933917969499843</v>
       </c>
       <c r="D34">
-        <v>-0.05564714246529731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004178530542643248</v>
+      </c>
+      <c r="E34">
+        <v>0.01111750773008403</v>
+      </c>
+      <c r="F34">
+        <v>-0.02098739073158011</v>
+      </c>
+      <c r="G34">
+        <v>0.09425806159135594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01464241910624498</v>
+        <v>0.01584831351140941</v>
       </c>
       <c r="C36">
-        <v>0.002323999669796825</v>
+        <v>-0.009681359550195645</v>
       </c>
       <c r="D36">
-        <v>-0.004248025292601714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01278061259416821</v>
+      </c>
+      <c r="E36">
+        <v>0.01064453962640509</v>
+      </c>
+      <c r="F36">
+        <v>0.007924303429347241</v>
+      </c>
+      <c r="G36">
+        <v>0.09281403875185003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01641550027095461</v>
+        <v>0.03107372989789528</v>
       </c>
       <c r="C38">
-        <v>-0.02120818327769416</v>
+        <v>-0.03011283984691391</v>
       </c>
       <c r="D38">
-        <v>-0.03869283455313895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007450675358067413</v>
+      </c>
+      <c r="E38">
+        <v>0.007410687060282598</v>
+      </c>
+      <c r="F38">
+        <v>0.01840554886445974</v>
+      </c>
+      <c r="G38">
+        <v>0.08753390321136685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.009103589783483072</v>
+        <v>0.03655400876975135</v>
       </c>
       <c r="C39">
-        <v>0.0174941819337072</v>
+        <v>-0.07968326817282478</v>
       </c>
       <c r="D39">
-        <v>-0.09972510971605549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01201246534651415</v>
+      </c>
+      <c r="E39">
+        <v>0.03167268445359407</v>
+      </c>
+      <c r="F39">
+        <v>-0.02056022601034598</v>
+      </c>
+      <c r="G39">
+        <v>0.09002116458224976</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01464758336562513</v>
+        <v>0.01331756616102444</v>
       </c>
       <c r="C40">
-        <v>0.002362684374459387</v>
+        <v>-0.03943472048763388</v>
       </c>
       <c r="D40">
-        <v>-0.03127866602037804</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01495089021385835</v>
+      </c>
+      <c r="E40">
+        <v>0.03275100618257803</v>
+      </c>
+      <c r="F40">
+        <v>0.01085282657734589</v>
+      </c>
+      <c r="G40">
+        <v>0.1243960092428906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01462085195358342</v>
+        <v>0.02051912117018359</v>
       </c>
       <c r="C41">
-        <v>-0.006741778810907395</v>
+        <v>-0.002869193784729978</v>
       </c>
       <c r="D41">
-        <v>0.0101094181012686</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004608091259343706</v>
+      </c>
+      <c r="E41">
+        <v>0.00814790316730199</v>
+      </c>
+      <c r="F41">
+        <v>0.01533226399222122</v>
+      </c>
+      <c r="G41">
+        <v>0.08579091336080781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03991424165545948</v>
+        <v>0.008319806588027213</v>
       </c>
       <c r="C42">
-        <v>0.08501226994981211</v>
+        <v>-0.03301056370497556</v>
       </c>
       <c r="D42">
-        <v>-0.1273507083122944</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08820589825284164</v>
+      </c>
+      <c r="E42">
+        <v>0.01321818165482603</v>
+      </c>
+      <c r="F42">
+        <v>0.03963411333817128</v>
+      </c>
+      <c r="G42">
+        <v>-0.02583904798369625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01530903238853373</v>
+        <v>0.0348346028325336</v>
       </c>
       <c r="C43">
-        <v>-0.006396144079600021</v>
+        <v>-0.01844457803782333</v>
       </c>
       <c r="D43">
-        <v>0.01099249657768393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006097652492998856</v>
+      </c>
+      <c r="E43">
+        <v>0.02184854905184326</v>
+      </c>
+      <c r="F43">
+        <v>0.007835458949196159</v>
+      </c>
+      <c r="G43">
+        <v>0.1196147739490006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.000254477884114273</v>
+        <v>0.01349075956675381</v>
       </c>
       <c r="C44">
-        <v>0.003027271131474054</v>
+        <v>-0.05941389456194499</v>
       </c>
       <c r="D44">
-        <v>-0.04849910458168177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007096967305509468</v>
+      </c>
+      <c r="E44">
+        <v>0.02615652011082382</v>
+      </c>
+      <c r="F44">
+        <v>0.006310216666856662</v>
+      </c>
+      <c r="G44">
+        <v>0.1104214805928597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00757400163780722</v>
+        <v>0.008405945552221182</v>
       </c>
       <c r="C46">
-        <v>0.006176278629923668</v>
+        <v>-0.01459752586613549</v>
       </c>
       <c r="D46">
-        <v>0.0052199283385545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01261876407508341</v>
+      </c>
+      <c r="E46">
+        <v>0.001959034221038348</v>
+      </c>
+      <c r="F46">
+        <v>0.01673896662517622</v>
+      </c>
+      <c r="G46">
+        <v>0.1069407513735763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02339631824448814</v>
+        <v>0.07788263667391032</v>
       </c>
       <c r="C47">
-        <v>-0.01924454616537792</v>
+        <v>-0.06913903877856338</v>
       </c>
       <c r="D47">
-        <v>-0.07392259515038038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004975182701216589</v>
+      </c>
+      <c r="E47">
+        <v>-0.00752755241597967</v>
+      </c>
+      <c r="F47">
+        <v>0.05381406990071036</v>
+      </c>
+      <c r="G47">
+        <v>0.08359939835191234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008662815392765186</v>
+        <v>0.01843793596793998</v>
       </c>
       <c r="C48">
-        <v>-0.00512546265760233</v>
+        <v>-0.01313483614610296</v>
       </c>
       <c r="D48">
-        <v>-0.01562634861237595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002483916345907979</v>
+      </c>
+      <c r="E48">
+        <v>0.006965067135359929</v>
+      </c>
+      <c r="F48">
+        <v>0.01922387591502654</v>
+      </c>
+      <c r="G48">
+        <v>0.09890513336123266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03296488314938784</v>
+        <v>0.07527554693314543</v>
       </c>
       <c r="C50">
-        <v>-0.02421305697078815</v>
+        <v>-0.07181866052702915</v>
       </c>
       <c r="D50">
-        <v>-0.0676018545311545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002178175899303865</v>
+      </c>
+      <c r="E50">
+        <v>-0.004048167301890343</v>
+      </c>
+      <c r="F50">
+        <v>0.05421452046028064</v>
+      </c>
+      <c r="G50">
+        <v>0.093571564992023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008311565041483905</v>
+        <v>0.01428103546470635</v>
       </c>
       <c r="C51">
-        <v>0.0003705068595672628</v>
+        <v>-0.03728065937140421</v>
       </c>
       <c r="D51">
-        <v>-0.02518733530693373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0106830943659551</v>
+      </c>
+      <c r="E51">
+        <v>0.03089321298261985</v>
+      </c>
+      <c r="F51">
+        <v>-0.01936446994180935</v>
+      </c>
+      <c r="G51">
+        <v>0.1252934686214871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03904231115959927</v>
+        <v>0.0819201394520158</v>
       </c>
       <c r="C53">
-        <v>-0.02811299531965768</v>
+        <v>-0.08443987997443456</v>
       </c>
       <c r="D53">
-        <v>-0.1241485129499891</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003424641681220966</v>
+      </c>
+      <c r="E53">
+        <v>-0.0263213576866866</v>
+      </c>
+      <c r="F53">
+        <v>0.06174018297399354</v>
+      </c>
+      <c r="G53">
+        <v>0.09319878713008647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01675792093819819</v>
+        <v>0.03120622320738181</v>
       </c>
       <c r="C54">
-        <v>-0.01616297299276306</v>
+        <v>-0.01856170632798659</v>
       </c>
       <c r="D54">
-        <v>0.002543856169027058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001050478375484915</v>
+      </c>
+      <c r="E54">
+        <v>0.02049375048532015</v>
+      </c>
+      <c r="F54">
+        <v>0.006415081687988385</v>
+      </c>
+      <c r="G54">
+        <v>0.1074615034823889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02176401631374066</v>
+        <v>0.07190268613148344</v>
       </c>
       <c r="C55">
-        <v>-0.01689196598679714</v>
+        <v>-0.06766854192087379</v>
       </c>
       <c r="D55">
-        <v>-0.0999432327335192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004992561553715648</v>
+      </c>
+      <c r="E55">
+        <v>-0.02422782073682298</v>
+      </c>
+      <c r="F55">
+        <v>0.06223086132649895</v>
+      </c>
+      <c r="G55">
+        <v>0.06981596886410414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04450732517618158</v>
+        <v>0.1363480150677086</v>
       </c>
       <c r="C56">
-        <v>-0.03665722073271545</v>
+        <v>-0.1076770045976261</v>
       </c>
       <c r="D56">
-        <v>-0.1587018802480418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01256140073260187</v>
+      </c>
+      <c r="E56">
+        <v>-0.03633543044905954</v>
+      </c>
+      <c r="F56">
+        <v>0.07924333196496679</v>
+      </c>
+      <c r="G56">
+        <v>0.04444365836642246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02025618752455297</v>
+        <v>0.006004425469877848</v>
       </c>
       <c r="C57">
-        <v>0.0129641999305132</v>
+        <v>-0.006714948451216166</v>
       </c>
       <c r="D57">
-        <v>-0.03136125189732843</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02286679854951327</v>
+      </c>
+      <c r="E57">
+        <v>0.02523415708338293</v>
+      </c>
+      <c r="F57">
+        <v>-0.005257487925322319</v>
+      </c>
+      <c r="G57">
+        <v>0.02347353462512326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02174232491910297</v>
+        <v>0.0508982939616127</v>
       </c>
       <c r="C58">
-        <v>-0.01281086066014519</v>
+        <v>-0.04265549901360747</v>
       </c>
       <c r="D58">
-        <v>-0.1138089006932032</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02266563032846732</v>
+      </c>
+      <c r="E58">
+        <v>0.8928545653407352</v>
+      </c>
+      <c r="F58">
+        <v>0.3217220837254575</v>
+      </c>
+      <c r="G58">
+        <v>-0.2404172464296344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2131934071071607</v>
+        <v>0.1600544533859469</v>
       </c>
       <c r="C59">
-        <v>-0.1517574500881126</v>
+        <v>0.2060739248077993</v>
       </c>
       <c r="D59">
-        <v>0.1141372787674252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01156934224010382</v>
+      </c>
+      <c r="E59">
+        <v>0.02076505111962074</v>
+      </c>
+      <c r="F59">
+        <v>0.002331806502603643</v>
+      </c>
+      <c r="G59">
+        <v>0.04252022953843337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1879879884109312</v>
+        <v>0.2876259564409301</v>
       </c>
       <c r="C60">
-        <v>-0.1110969189994575</v>
+        <v>-0.1105699446651802</v>
       </c>
       <c r="D60">
-        <v>-0.1588798076790636</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01255016531446631</v>
+      </c>
+      <c r="E60">
+        <v>0.01972286319501702</v>
+      </c>
+      <c r="F60">
+        <v>-0.3391432736767837</v>
+      </c>
+      <c r="G60">
+        <v>-0.1600612855076728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003403793678027203</v>
+        <v>0.03868386124915496</v>
       </c>
       <c r="C61">
-        <v>0.001568580943877809</v>
+        <v>-0.06575562733013415</v>
       </c>
       <c r="D61">
-        <v>-0.07557259992580406</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005949197943268719</v>
+      </c>
+      <c r="E61">
+        <v>0.02664873996899681</v>
+      </c>
+      <c r="F61">
+        <v>-0.01278652166170256</v>
+      </c>
+      <c r="G61">
+        <v>0.09772556880325733</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006019097753961054</v>
+        <v>0.01482475848927308</v>
       </c>
       <c r="C63">
-        <v>0.004514914041126377</v>
+        <v>-0.03009432141650118</v>
       </c>
       <c r="D63">
-        <v>-0.02508928444442151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008765543779030301</v>
+      </c>
+      <c r="E63">
+        <v>0.00693953328832948</v>
+      </c>
+      <c r="F63">
+        <v>0.01430957380522256</v>
+      </c>
+      <c r="G63">
+        <v>0.09488072287648451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02647077050167567</v>
+        <v>0.04927463504689759</v>
       </c>
       <c r="C64">
-        <v>-0.01264532889608943</v>
+        <v>-0.04821553469319993</v>
       </c>
       <c r="D64">
-        <v>-0.0580171442888907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006513128257217451</v>
+      </c>
+      <c r="E64">
+        <v>0.009036998448128579</v>
+      </c>
+      <c r="F64">
+        <v>-0.006140124374538893</v>
+      </c>
+      <c r="G64">
+        <v>0.09962384285155076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03057801324049008</v>
+        <v>0.0747999084921236</v>
       </c>
       <c r="C65">
-        <v>-0.0007244798532578065</v>
+        <v>-0.05764880165074694</v>
       </c>
       <c r="D65">
-        <v>-0.1143450081014299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01706884157700696</v>
+      </c>
+      <c r="E65">
+        <v>0.04393947062269662</v>
+      </c>
+      <c r="F65">
+        <v>-0.02596962674038274</v>
+      </c>
+      <c r="G65">
+        <v>0.044959993782927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005727107028138637</v>
+        <v>0.05066637254909818</v>
       </c>
       <c r="C66">
-        <v>0.01460221967780379</v>
+        <v>-0.1066502249822832</v>
       </c>
       <c r="D66">
-        <v>-0.1412690035866462</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.012196892596572</v>
+      </c>
+      <c r="E66">
+        <v>0.04507998073725587</v>
+      </c>
+      <c r="F66">
+        <v>-0.03187711355609633</v>
+      </c>
+      <c r="G66">
+        <v>0.1054614076264355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03698055134378536</v>
+        <v>0.05407028071658709</v>
       </c>
       <c r="C67">
-        <v>-0.03178945536068478</v>
+        <v>-0.03364026616534443</v>
       </c>
       <c r="D67">
-        <v>-0.05874921552056586</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006045366705436445</v>
+      </c>
+      <c r="E67">
+        <v>-0.002598347629914393</v>
+      </c>
+      <c r="F67">
+        <v>0.01732685699087116</v>
+      </c>
+      <c r="G67">
+        <v>0.07485594304941802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2176585007791701</v>
+        <v>0.1555090814637568</v>
       </c>
       <c r="C68">
-        <v>-0.131228314692587</v>
+        <v>0.2697273668773307</v>
       </c>
       <c r="D68">
-        <v>0.1773939870347895</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00563102499887967</v>
+      </c>
+      <c r="E68">
+        <v>0.01142831434413065</v>
+      </c>
+      <c r="F68">
+        <v>0.03709527956080128</v>
+      </c>
+      <c r="G68">
+        <v>0.03093917840036083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03042698880768529</v>
+        <v>0.08251863986321686</v>
       </c>
       <c r="C69">
-        <v>-0.02899399647256398</v>
+        <v>-0.07032813458468411</v>
       </c>
       <c r="D69">
-        <v>-0.07653264227973459</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008942043255188544</v>
+      </c>
+      <c r="E69">
+        <v>-0.02093789863946992</v>
+      </c>
+      <c r="F69">
+        <v>0.03650133462567074</v>
+      </c>
+      <c r="G69">
+        <v>0.1017882701907559</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1762903268233172</v>
+        <v>0.1413544956601525</v>
       </c>
       <c r="C71">
-        <v>-0.1140108506107259</v>
+        <v>0.229051309275239</v>
       </c>
       <c r="D71">
-        <v>0.1216097111510658</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002816694890807638</v>
+      </c>
+      <c r="E71">
+        <v>0.03128880596425714</v>
+      </c>
+      <c r="F71">
+        <v>0.02832108704408732</v>
+      </c>
+      <c r="G71">
+        <v>0.07160674511593554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0144237802267848</v>
+        <v>0.08508800853879829</v>
       </c>
       <c r="C72">
-        <v>-0.01771474992294509</v>
+        <v>-0.06898200143713584</v>
       </c>
       <c r="D72">
-        <v>-0.1081822544124788</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008174860483540049</v>
+      </c>
+      <c r="E72">
+        <v>-0.007554663082550368</v>
+      </c>
+      <c r="F72">
+        <v>-0.0331692863976942</v>
+      </c>
+      <c r="G72">
+        <v>0.08850190798284653</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2320681592098137</v>
+        <v>0.3765015721223271</v>
       </c>
       <c r="C73">
-        <v>-0.1309790617024661</v>
+        <v>-0.1174212008290261</v>
       </c>
       <c r="D73">
-        <v>-0.2898032281471802</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02245316879869155</v>
+      </c>
+      <c r="E73">
+        <v>0.1094925505509464</v>
+      </c>
+      <c r="F73">
+        <v>-0.5778762104937716</v>
+      </c>
+      <c r="G73">
+        <v>-0.2909298804657817</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04644648404495592</v>
+        <v>0.1046431006552148</v>
       </c>
       <c r="C74">
-        <v>-0.04012413276576771</v>
+        <v>-0.1090200165485471</v>
       </c>
       <c r="D74">
-        <v>-0.1691008141649718</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009418599251595671</v>
+      </c>
+      <c r="E74">
+        <v>-0.009904620897164092</v>
+      </c>
+      <c r="F74">
+        <v>0.06803825889851846</v>
+      </c>
+      <c r="G74">
+        <v>0.08281041105463598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1134120082031753</v>
+        <v>0.2478672964356916</v>
       </c>
       <c r="C75">
-        <v>-0.09292389584857301</v>
+        <v>-0.1525071660808859</v>
       </c>
       <c r="D75">
-        <v>-0.2999406699017559</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03131228953598517</v>
+      </c>
+      <c r="E75">
+        <v>-0.07666243243940037</v>
+      </c>
+      <c r="F75">
+        <v>0.1615450041515928</v>
+      </c>
+      <c r="G75">
+        <v>-0.01900537203167128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05309767418324028</v>
+        <v>0.1178845507380751</v>
       </c>
       <c r="C76">
-        <v>-0.05093324084393355</v>
+        <v>-0.1084675251136537</v>
       </c>
       <c r="D76">
-        <v>-0.1970044379253841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01772492024060056</v>
+      </c>
+      <c r="E76">
+        <v>-0.02994796014061007</v>
+      </c>
+      <c r="F76">
+        <v>0.09753266124574977</v>
+      </c>
+      <c r="G76">
+        <v>0.05779683838350575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01674947201027713</v>
+        <v>0.07094403525643636</v>
       </c>
       <c r="C77">
-        <v>-0.0004326054296990531</v>
+        <v>-0.06205114958350923</v>
       </c>
       <c r="D77">
-        <v>-0.0838807270707332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.010563405524801</v>
+      </c>
+      <c r="E77">
+        <v>0.05214729361211833</v>
+      </c>
+      <c r="F77">
+        <v>-0.01122348915305234</v>
+      </c>
+      <c r="G77">
+        <v>0.0647344310804099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008886544984440012</v>
+        <v>0.04261140205962762</v>
       </c>
       <c r="C78">
-        <v>-0.001694853821185887</v>
+        <v>-0.04908319627057213</v>
       </c>
       <c r="D78">
-        <v>-0.06408528488297696</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006204297225946588</v>
+      </c>
+      <c r="E78">
+        <v>0.03374455940354436</v>
+      </c>
+      <c r="F78">
+        <v>-0.03439338024194364</v>
+      </c>
+      <c r="G78">
+        <v>0.1043017756573964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0002049323601109646</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004253318291340699</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.000187325094057345</v>
+      </c>
+      <c r="E79">
+        <v>0.002230918253338146</v>
+      </c>
+      <c r="F79">
+        <v>-0.001105584308227602</v>
+      </c>
+      <c r="G79">
+        <v>0.0007236808780317618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03364036705577858</v>
+        <v>0.04245117732092479</v>
       </c>
       <c r="C80">
-        <v>-0.009945774471479294</v>
+        <v>-0.05148859047815366</v>
       </c>
       <c r="D80">
-        <v>-0.07481926458367211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01329334655627426</v>
+      </c>
+      <c r="E80">
+        <v>0.02779539644652421</v>
+      </c>
+      <c r="F80">
+        <v>-0.01047371948745258</v>
+      </c>
+      <c r="G80">
+        <v>0.05146216409655715</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06356625166364728</v>
+        <v>0.1370187850652034</v>
       </c>
       <c r="C81">
-        <v>-0.05139128748041208</v>
+        <v>-0.09704492729181945</v>
       </c>
       <c r="D81">
-        <v>-0.1652761222015245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01505418947077786</v>
+      </c>
+      <c r="E81">
+        <v>-0.04102094698785375</v>
+      </c>
+      <c r="F81">
+        <v>0.1249966789731636</v>
+      </c>
+      <c r="G81">
+        <v>0.01994692933134738</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1371328677792082</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08253888025459044</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01061894850813366</v>
+      </c>
+      <c r="E82">
+        <v>-0.109167023798163</v>
+      </c>
+      <c r="F82">
+        <v>0.05570549907530646</v>
+      </c>
+      <c r="G82">
+        <v>0.05768458311602782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01338998930804132</v>
+        <v>0.03618600314776781</v>
       </c>
       <c r="C83">
-        <v>-0.004439356724793576</v>
+        <v>-0.02854096986973987</v>
       </c>
       <c r="D83">
-        <v>-0.02302664892442951</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006181204100837597</v>
+      </c>
+      <c r="E83">
+        <v>0.03272626187889269</v>
+      </c>
+      <c r="F83">
+        <v>-0.02713815033887037</v>
+      </c>
+      <c r="G83">
+        <v>0.06270951621731267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0965584968154333</v>
+        <v>0.2108242492851972</v>
       </c>
       <c r="C85">
-        <v>-0.06615695260062457</v>
+        <v>-0.1466441306330737</v>
       </c>
       <c r="D85">
-        <v>-0.2614792438238495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0171255860063012</v>
+      </c>
+      <c r="E85">
+        <v>-0.1083451202327708</v>
+      </c>
+      <c r="F85">
+        <v>0.1081197285303219</v>
+      </c>
+      <c r="G85">
+        <v>-0.06115049371893637</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01560352122434368</v>
+        <v>0.01372758565087529</v>
       </c>
       <c r="C86">
-        <v>-0.005003110137291762</v>
+        <v>-0.02484307353612847</v>
       </c>
       <c r="D86">
-        <v>-0.03586711526441161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0116160683314656</v>
+      </c>
+      <c r="E86">
+        <v>0.0537273157638793</v>
+      </c>
+      <c r="F86">
+        <v>-0.0144424084369184</v>
+      </c>
+      <c r="G86">
+        <v>0.1927005394731484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003008693951941584</v>
+        <v>0.02162293072417773</v>
       </c>
       <c r="C87">
-        <v>0.01232625811470815</v>
+        <v>-0.01912052646087528</v>
       </c>
       <c r="D87">
-        <v>-0.0305112323112024</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0122830695785674</v>
+      </c>
+      <c r="E87">
+        <v>0.09821748260719632</v>
+      </c>
+      <c r="F87">
+        <v>-0.002414468929216681</v>
+      </c>
+      <c r="G87">
+        <v>0.1210107730011716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04873468479159262</v>
+        <v>0.09336004537866403</v>
       </c>
       <c r="C88">
-        <v>-0.006488497362506252</v>
+        <v>-0.06915545534092062</v>
       </c>
       <c r="D88">
-        <v>-0.04225240615936058</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02216911118385423</v>
+      </c>
+      <c r="E88">
+        <v>-0.004709485301554833</v>
+      </c>
+      <c r="F88">
+        <v>0.02086525766851504</v>
+      </c>
+      <c r="G88">
+        <v>0.103168255632416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3308211866684163</v>
+        <v>0.2329674878812339</v>
       </c>
       <c r="C89">
-        <v>-0.2112937222352886</v>
+        <v>0.3682705912011758</v>
       </c>
       <c r="D89">
-        <v>0.2125268704366961</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0003576256227176835</v>
+      </c>
+      <c r="E89">
+        <v>-0.01889177352514729</v>
+      </c>
+      <c r="F89">
+        <v>0.02487216543677695</v>
+      </c>
+      <c r="G89">
+        <v>0.06881415713017698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2710141294799759</v>
+        <v>0.2079003920499526</v>
       </c>
       <c r="C90">
-        <v>-0.1770675781662035</v>
+        <v>0.317216929110231</v>
       </c>
       <c r="D90">
-        <v>0.1905510024738653</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004757834807323544</v>
+      </c>
+      <c r="E90">
+        <v>-0.0006137117253110092</v>
+      </c>
+      <c r="F90">
+        <v>0.04558590897339789</v>
+      </c>
+      <c r="G90">
+        <v>0.04298971155623291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09542198593305069</v>
+        <v>0.1849280957065016</v>
       </c>
       <c r="C91">
-        <v>-0.08044870361280669</v>
+        <v>-0.1406383778939333</v>
       </c>
       <c r="D91">
-        <v>-0.2196383155330563</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02206473534918595</v>
+      </c>
+      <c r="E91">
+        <v>-0.06951760321913251</v>
+      </c>
+      <c r="F91">
+        <v>0.1355046236211543</v>
+      </c>
+      <c r="G91">
+        <v>0.0347251310565355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2284215629861858</v>
+        <v>0.199478509845576</v>
       </c>
       <c r="C92">
-        <v>-0.1854878441034544</v>
+        <v>0.2572374612298123</v>
       </c>
       <c r="D92">
-        <v>0.09916736926528749</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03821124582247497</v>
+      </c>
+      <c r="E92">
+        <v>0.03598938711176349</v>
+      </c>
+      <c r="F92">
+        <v>0.06015904646669577</v>
+      </c>
+      <c r="G92">
+        <v>0.1119202082890549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.289215945413978</v>
+        <v>0.2320405069220943</v>
       </c>
       <c r="C93">
-        <v>-0.1954396473970223</v>
+        <v>0.3125790959613935</v>
       </c>
       <c r="D93">
-        <v>0.1608427970723388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01151664660132395</v>
+      </c>
+      <c r="E93">
+        <v>0.001492638059026495</v>
+      </c>
+      <c r="F93">
+        <v>0.04416340336942296</v>
+      </c>
+      <c r="G93">
+        <v>0.05844072429023305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.148768192826677</v>
+        <v>0.3212980561177172</v>
       </c>
       <c r="C94">
-        <v>-0.0933508882508957</v>
+        <v>-0.1822609398154351</v>
       </c>
       <c r="D94">
-        <v>-0.2821393073571983</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02018985392035608</v>
+      </c>
+      <c r="E94">
+        <v>-0.2426156706031773</v>
+      </c>
+      <c r="F94">
+        <v>0.4694868056476687</v>
+      </c>
+      <c r="G94">
+        <v>-0.405442581551048</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004801427256891293</v>
+        <v>0.1002299476342668</v>
       </c>
       <c r="C95">
-        <v>-0.01232793218799493</v>
+        <v>-0.08857920363143514</v>
       </c>
       <c r="D95">
-        <v>-0.1233957248856744</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009878082114657341</v>
+      </c>
+      <c r="E95">
+        <v>0.09009599217902876</v>
+      </c>
+      <c r="F95">
+        <v>-0.1744501593051282</v>
+      </c>
+      <c r="G95">
+        <v>5.898043529994773e-05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1348559542058398</v>
+        <v>0.194534112216135</v>
       </c>
       <c r="C98">
-        <v>-0.1078913201620145</v>
+        <v>-0.04506489951406711</v>
       </c>
       <c r="D98">
-        <v>-0.1297694622260867</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01252634778521356</v>
+      </c>
+      <c r="E98">
+        <v>0.08479989161556066</v>
+      </c>
+      <c r="F98">
+        <v>-0.235374659405252</v>
+      </c>
+      <c r="G98">
+        <v>-0.02718724473965137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008661296428181031</v>
+        <v>0.008275605793330096</v>
       </c>
       <c r="C101">
-        <v>0.001565909547472395</v>
+        <v>-0.0226382239325483</v>
       </c>
       <c r="D101">
-        <v>-0.01688209858160896</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009246819299145222</v>
+      </c>
+      <c r="E101">
+        <v>0.006042484388911514</v>
+      </c>
+      <c r="F101">
+        <v>0.01503757674837196</v>
+      </c>
+      <c r="G101">
+        <v>0.09811923309561606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05741555190202496</v>
+        <v>0.1144218923916845</v>
       </c>
       <c r="C102">
-        <v>-0.03103442369731076</v>
+        <v>-0.08354006373893402</v>
       </c>
       <c r="D102">
-        <v>-0.1352844921515332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0009599871330896883</v>
+      </c>
+      <c r="E102">
+        <v>-0.03566066045253011</v>
+      </c>
+      <c r="F102">
+        <v>0.03769172019646761</v>
+      </c>
+      <c r="G102">
+        <v>0.01304220503744117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.553891226178398</v>
+        <v>0.02105853677098905</v>
       </c>
       <c r="C104">
-        <v>0.8218096482572188</v>
+        <v>0.03046527896256823</v>
       </c>
       <c r="D104">
-        <v>0.02428357223911997</v>
+        <v>-0.9877017215154651</v>
+      </c>
+      <c r="E104">
+        <v>-0.05467542292345402</v>
+      </c>
+      <c r="F104">
+        <v>0.03411074660783343</v>
+      </c>
+      <c r="G104">
+        <v>-0.04004455866905995</v>
       </c>
     </row>
   </sheetData>
